--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.419842666666667</v>
+        <v>0.526385</v>
       </c>
       <c r="H2">
-        <v>13.259528</v>
+        <v>1.579155</v>
       </c>
       <c r="I2">
-        <v>0.03716291774491311</v>
+        <v>0.004602503788524942</v>
       </c>
       <c r="J2">
-        <v>0.03716291774491312</v>
+        <v>0.004602503788524943</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.02092</v>
+        <v>5.616015666666666</v>
       </c>
       <c r="N2">
-        <v>12.06276</v>
+        <v>16.848047</v>
       </c>
       <c r="O2">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623356</v>
       </c>
       <c r="P2">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623357</v>
       </c>
       <c r="Q2">
-        <v>17.77183377525333</v>
+        <v>2.956186406698333</v>
       </c>
       <c r="R2">
-        <v>159.94650397728</v>
+        <v>26.605677660285</v>
       </c>
       <c r="S2">
-        <v>0.008583300845685345</v>
+        <v>0.001316688011675934</v>
       </c>
       <c r="T2">
-        <v>0.008583300845685347</v>
+        <v>0.001316688011675934</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.419842666666667</v>
+        <v>0.526385</v>
       </c>
       <c r="H3">
-        <v>13.259528</v>
+        <v>1.579155</v>
       </c>
       <c r="I3">
-        <v>0.03716291774491311</v>
+        <v>0.004602503788524942</v>
       </c>
       <c r="J3">
-        <v>0.03716291774491312</v>
+        <v>0.004602503788524943</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.435526000000001</v>
+        <v>8.435525999999999</v>
       </c>
       <c r="N3">
         <v>25.306578</v>
       </c>
       <c r="O3">
-        <v>0.4845418204168501</v>
+        <v>0.4297071542841152</v>
       </c>
       <c r="P3">
-        <v>0.48454182041685</v>
+        <v>0.4297071542841153</v>
       </c>
       <c r="Q3">
-        <v>37.28369773057601</v>
+        <v>4.44033435351</v>
       </c>
       <c r="R3">
-        <v>335.553279575184</v>
+        <v>39.96300918159</v>
       </c>
       <c r="S3">
-        <v>0.01800698781612186</v>
+        <v>0.001977728805548912</v>
       </c>
       <c r="T3">
-        <v>0.01800698781612186</v>
+        <v>0.001977728805548913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.419842666666667</v>
+        <v>0.526385</v>
       </c>
       <c r="H4">
-        <v>13.259528</v>
+        <v>1.579155</v>
       </c>
       <c r="I4">
-        <v>0.03716291774491311</v>
+        <v>0.004602503788524942</v>
       </c>
       <c r="J4">
-        <v>0.03716291774491312</v>
+        <v>0.004602503788524943</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.491604333333333</v>
+        <v>2.036951</v>
       </c>
       <c r="N4">
-        <v>4.474813</v>
+        <v>6.110853000000001</v>
       </c>
       <c r="O4">
-        <v>0.08567867362568679</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="P4">
-        <v>0.0856786736256868</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="Q4">
-        <v>6.592656474251556</v>
+        <v>1.072220452135</v>
       </c>
       <c r="R4">
-        <v>59.333908268264</v>
+        <v>9.649984069215002</v>
       </c>
       <c r="S4">
-        <v>0.003184069500444655</v>
+        <v>0.0004775679273813705</v>
       </c>
       <c r="T4">
-        <v>0.003184069500444656</v>
+        <v>0.0004775679273813707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.419842666666667</v>
+        <v>0.526385</v>
       </c>
       <c r="H5">
-        <v>13.259528</v>
+        <v>1.579155</v>
       </c>
       <c r="I5">
-        <v>0.03716291774491311</v>
+        <v>0.004602503788524942</v>
       </c>
       <c r="J5">
-        <v>0.03716291774491312</v>
+        <v>0.004602503788524943</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.461233333333334</v>
+        <v>3.542379</v>
       </c>
       <c r="N5">
-        <v>10.3837</v>
+        <v>10.627137</v>
       </c>
       <c r="O5">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007442</v>
       </c>
       <c r="P5">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007443</v>
       </c>
       <c r="Q5">
-        <v>15.29810676595556</v>
+        <v>1.864655169915</v>
       </c>
       <c r="R5">
-        <v>137.6829608936</v>
+        <v>16.781896529235</v>
       </c>
       <c r="S5">
-        <v>0.007388559582661258</v>
+        <v>0.0008305190439187255</v>
       </c>
       <c r="T5">
-        <v>0.007388559582661258</v>
+        <v>0.0008305190439187259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>340.723572</v>
       </c>
       <c r="I6">
-        <v>0.9549572262292428</v>
+        <v>0.9930510500677584</v>
       </c>
       <c r="J6">
-        <v>0.9549572262292431</v>
+        <v>0.9930510500677585</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.02092</v>
+        <v>5.616015666666666</v>
       </c>
       <c r="N6">
-        <v>12.06276</v>
+        <v>16.848047</v>
       </c>
       <c r="O6">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623356</v>
       </c>
       <c r="P6">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623357</v>
       </c>
       <c r="Q6">
-        <v>456.67407504208</v>
+        <v>637.8363061182092</v>
       </c>
       <c r="R6">
-        <v>4110.06667537872</v>
+        <v>5740.526755063883</v>
       </c>
       <c r="S6">
-        <v>0.2205608618717447</v>
+        <v>0.2840928487373323</v>
       </c>
       <c r="T6">
-        <v>0.2205608618717447</v>
+        <v>0.2840928487373323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>340.723572</v>
       </c>
       <c r="I7">
-        <v>0.9549572262292428</v>
+        <v>0.9930510500677584</v>
       </c>
       <c r="J7">
-        <v>0.9549572262292431</v>
+        <v>0.9930510500677585</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.435526000000001</v>
+        <v>8.435525999999999</v>
       </c>
       <c r="N7">
         <v>25.306578</v>
       </c>
       <c r="O7">
-        <v>0.4845418204168501</v>
+        <v>0.4297071542841152</v>
       </c>
       <c r="P7">
-        <v>0.48454182041685</v>
+        <v>0.4297071542841153</v>
       </c>
       <c r="Q7">
-        <v>958.0608501396241</v>
+        <v>958.0608501396239</v>
       </c>
       <c r="R7">
-        <v>8622.547651256617</v>
+        <v>8622.547651256615</v>
       </c>
       <c r="S7">
-        <v>0.4627167128173431</v>
+        <v>0.4267211407834689</v>
       </c>
       <c r="T7">
-        <v>0.4627167128173431</v>
+        <v>0.426721140783469</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>340.723572</v>
       </c>
       <c r="I8">
-        <v>0.9549572262292428</v>
+        <v>0.9930510500677584</v>
       </c>
       <c r="J8">
-        <v>0.9549572262292431</v>
+        <v>0.9930510500677585</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.491604333333333</v>
+        <v>2.036951</v>
       </c>
       <c r="N8">
-        <v>4.474813</v>
+        <v>6.110853000000001</v>
       </c>
       <c r="O8">
-        <v>0.08567867362568679</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="P8">
-        <v>0.0856786736256868</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="Q8">
-        <v>169.4082521546707</v>
+        <v>231.345740236324</v>
       </c>
       <c r="R8">
-        <v>1524.674269392036</v>
+        <v>2082.111662126916</v>
       </c>
       <c r="S8">
-        <v>0.08181946851258644</v>
+        <v>0.1030415950872569</v>
       </c>
       <c r="T8">
-        <v>0.08181946851258648</v>
+        <v>0.1030415950872569</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>340.723572</v>
       </c>
       <c r="I9">
-        <v>0.9549572262292428</v>
+        <v>0.9930510500677584</v>
       </c>
       <c r="J9">
-        <v>0.9549572262292431</v>
+        <v>0.9930510500677585</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.461233333333334</v>
+        <v>3.542379</v>
       </c>
       <c r="N9">
-        <v>10.3837</v>
+        <v>10.627137</v>
       </c>
       <c r="O9">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007442</v>
       </c>
       <c r="P9">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007443</v>
       </c>
       <c r="Q9">
-        <v>393.1079282862667</v>
+        <v>402.3240087525961</v>
       </c>
       <c r="R9">
-        <v>3537.9713545764</v>
+        <v>3620.916078773364</v>
       </c>
       <c r="S9">
-        <v>0.1898601830275688</v>
+        <v>0.1791954654597003</v>
       </c>
       <c r="T9">
-        <v>0.1898601830275688</v>
+        <v>0.1791954654597004</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.7286423333333333</v>
+        <v>0.223143</v>
       </c>
       <c r="H10">
-        <v>2.185927</v>
+        <v>0.6694290000000001</v>
       </c>
       <c r="I10">
-        <v>0.006126569912396933</v>
+        <v>0.001951074789142588</v>
       </c>
       <c r="J10">
-        <v>0.006126569912396934</v>
+        <v>0.001951074789142588</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.02092</v>
+        <v>5.616015666666666</v>
       </c>
       <c r="N10">
-        <v>12.06276</v>
+        <v>16.848047</v>
       </c>
       <c r="O10">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623356</v>
       </c>
       <c r="P10">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623357</v>
       </c>
       <c r="Q10">
-        <v>2.929812530946667</v>
+        <v>1.253174583907</v>
       </c>
       <c r="R10">
-        <v>26.36831277852</v>
+        <v>11.278571255163</v>
       </c>
       <c r="S10">
-        <v>0.001415017869995555</v>
+        <v>0.0005581650559750049</v>
       </c>
       <c r="T10">
-        <v>0.001415017869995556</v>
+        <v>0.000558165055975005</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.7286423333333333</v>
+        <v>0.223143</v>
       </c>
       <c r="H11">
-        <v>2.185927</v>
+        <v>0.6694290000000001</v>
       </c>
       <c r="I11">
-        <v>0.006126569912396933</v>
+        <v>0.001951074789142588</v>
       </c>
       <c r="J11">
-        <v>0.006126569912396934</v>
+        <v>0.001951074789142588</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.435526000000001</v>
+        <v>8.435525999999999</v>
       </c>
       <c r="N11">
         <v>25.306578</v>
       </c>
       <c r="O11">
-        <v>0.4845418204168501</v>
+        <v>0.4297071542841152</v>
       </c>
       <c r="P11">
-        <v>0.48454182041685</v>
+        <v>0.4297071542841153</v>
       </c>
       <c r="Q11">
-        <v>6.146481347534</v>
+        <v>1.882328578218</v>
       </c>
       <c r="R11">
-        <v>55.318332127806</v>
+        <v>16.940957203962</v>
       </c>
       <c r="S11">
-        <v>0.002968579338263912</v>
+        <v>0.0008383907954379417</v>
       </c>
       <c r="T11">
-        <v>0.002968579338263912</v>
+        <v>0.0008383907954379419</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.7286423333333333</v>
+        <v>0.223143</v>
       </c>
       <c r="H12">
-        <v>2.185927</v>
+        <v>0.6694290000000001</v>
       </c>
       <c r="I12">
-        <v>0.006126569912396933</v>
+        <v>0.001951074789142588</v>
       </c>
       <c r="J12">
-        <v>0.006126569912396934</v>
+        <v>0.001951074789142588</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.491604333333333</v>
+        <v>2.036951</v>
       </c>
       <c r="N12">
-        <v>4.474813</v>
+        <v>6.110853000000001</v>
       </c>
       <c r="O12">
-        <v>0.08567867362568679</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="P12">
-        <v>0.0856786736256868</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="Q12">
-        <v>1.086846061850111</v>
+        <v>0.4545313569930001</v>
       </c>
       <c r="R12">
-        <v>9.781614556651</v>
+        <v>4.090782212937</v>
       </c>
       <c r="S12">
-        <v>0.0005249163839692093</v>
+        <v>0.0002024486640380352</v>
       </c>
       <c r="T12">
-        <v>0.0005249163839692096</v>
+        <v>0.0002024486640380353</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.7286423333333333</v>
+        <v>0.223143</v>
       </c>
       <c r="H13">
-        <v>2.185927</v>
+        <v>0.6694290000000001</v>
       </c>
       <c r="I13">
-        <v>0.006126569912396933</v>
+        <v>0.001951074789142588</v>
       </c>
       <c r="J13">
-        <v>0.006126569912396934</v>
+        <v>0.001951074789142588</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.461233333333334</v>
+        <v>3.542379</v>
       </c>
       <c r="N13">
-        <v>10.3837</v>
+        <v>10.627137</v>
       </c>
       <c r="O13">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007442</v>
       </c>
       <c r="P13">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007443</v>
       </c>
       <c r="Q13">
-        <v>2.522001132211111</v>
+        <v>0.7904570771970001</v>
       </c>
       <c r="R13">
-        <v>22.6980101899</v>
+        <v>7.114113694773001</v>
       </c>
       <c r="S13">
-        <v>0.001218056320168257</v>
+        <v>0.0003520702736916063</v>
       </c>
       <c r="T13">
-        <v>0.001218056320168257</v>
+        <v>0.0003520702736916064</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.208521</v>
+        <v>0.04521833333333333</v>
       </c>
       <c r="H14">
-        <v>0.625563</v>
+        <v>0.135655</v>
       </c>
       <c r="I14">
-        <v>0.001753286113446955</v>
+        <v>0.0003953713545740292</v>
       </c>
       <c r="J14">
-        <v>0.001753286113446956</v>
+        <v>0.0003953713545740293</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.02092</v>
+        <v>5.616015666666666</v>
       </c>
       <c r="N14">
-        <v>12.06276</v>
+        <v>16.848047</v>
       </c>
       <c r="O14">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623356</v>
       </c>
       <c r="P14">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623357</v>
       </c>
       <c r="Q14">
-        <v>0.8384462593199999</v>
+        <v>0.2539468684205555</v>
       </c>
       <c r="R14">
-        <v>7.54601633388</v>
+        <v>2.285521815785</v>
       </c>
       <c r="S14">
-        <v>0.0004049461961941225</v>
+        <v>0.0001131081573524441</v>
       </c>
       <c r="T14">
-        <v>0.0004049461961941226</v>
+        <v>0.0001131081573524441</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.208521</v>
+        <v>0.04521833333333333</v>
       </c>
       <c r="H15">
-        <v>0.625563</v>
+        <v>0.135655</v>
       </c>
       <c r="I15">
-        <v>0.001753286113446955</v>
+        <v>0.0003953713545740292</v>
       </c>
       <c r="J15">
-        <v>0.001753286113446956</v>
+        <v>0.0003953713545740293</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.435526000000001</v>
+        <v>8.435525999999999</v>
       </c>
       <c r="N15">
         <v>25.306578</v>
       </c>
       <c r="O15">
-        <v>0.4845418204168501</v>
+        <v>0.4297071542841152</v>
       </c>
       <c r="P15">
-        <v>0.48454182041685</v>
+        <v>0.4297071542841153</v>
       </c>
       <c r="Q15">
-        <v>1.758984317046</v>
+        <v>0.38144042651</v>
       </c>
       <c r="R15">
-        <v>15.830858853414</v>
+        <v>3.43296383859</v>
       </c>
       <c r="S15">
-        <v>0.0008495404451211717</v>
+        <v>0.000169893899659462</v>
       </c>
       <c r="T15">
-        <v>0.0008495404451211717</v>
+        <v>0.000169893899659462</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.208521</v>
+        <v>0.04521833333333333</v>
       </c>
       <c r="H16">
-        <v>0.625563</v>
+        <v>0.135655</v>
       </c>
       <c r="I16">
-        <v>0.001753286113446955</v>
+        <v>0.0003953713545740292</v>
       </c>
       <c r="J16">
-        <v>0.001753286113446956</v>
+        <v>0.0003953713545740293</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.491604333333333</v>
+        <v>2.036951</v>
       </c>
       <c r="N16">
-        <v>4.474813</v>
+        <v>6.110853000000001</v>
       </c>
       <c r="O16">
-        <v>0.08567867362568679</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="P16">
-        <v>0.0856786736256868</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="Q16">
-        <v>0.3110308271909999</v>
+        <v>0.09210752930166667</v>
       </c>
       <c r="R16">
-        <v>2.799277444719</v>
+        <v>0.828967763715</v>
       </c>
       <c r="S16">
-        <v>0.0001502192286864706</v>
+        <v>4.102477412851799E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001502192286864706</v>
+        <v>4.102477412851799E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.208521</v>
+        <v>0.04521833333333333</v>
       </c>
       <c r="H17">
-        <v>0.625563</v>
+        <v>0.135655</v>
       </c>
       <c r="I17">
-        <v>0.001753286113446955</v>
+        <v>0.0003953713545740292</v>
       </c>
       <c r="J17">
-        <v>0.001753286113446956</v>
+        <v>0.0003953713545740293</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.461233333333334</v>
+        <v>3.542379</v>
       </c>
       <c r="N17">
-        <v>10.3837</v>
+        <v>10.627137</v>
       </c>
       <c r="O17">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007442</v>
       </c>
       <c r="P17">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007443</v>
       </c>
       <c r="Q17">
-        <v>0.7217398359</v>
+        <v>0.160180474415</v>
       </c>
       <c r="R17">
-        <v>6.4956585231</v>
+        <v>1.441624269735</v>
       </c>
       <c r="S17">
-        <v>0.0003485802434451908</v>
+        <v>7.134452343360513E-05</v>
       </c>
       <c r="T17">
-        <v>0.0003485802434451908</v>
+        <v>7.134452343360516E-05</v>
       </c>
     </row>
   </sheetData>
